--- a/CaseStudy/Training/教育プログラム事例分析.xlsx
+++ b/CaseStudy/Training/教育プログラム事例分析.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\個人フォルダ\Iwata\OSS岩田\OpenChain\20190228\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\個人フォルダ\Iwata\OSS岩田\OpenChain\20190418\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
     <author>小泉　悟</author>
   </authors>
   <commentList>
-    <comment ref="M5" authorId="0" shapeId="0">
+    <comment ref="N5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N5" authorId="0" shapeId="0">
+    <comment ref="O5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L44" authorId="0" shapeId="0">
+    <comment ref="M44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="220">
   <si>
     <t>全社員向け</t>
     <rPh sb="0" eb="3">
@@ -125,24 +125,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パートナー向け</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SW開発者向けOSS研修</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「オープンソースムーブメントが創り出す新たなビジネスモデル」
 ～差別化のみが生きる道～
 （Differentiate or Die)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OSS基礎</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>背景色の説明</t>
     <rPh sb="0" eb="3">
       <t>ハイケイショク</t>
@@ -219,22 +207,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SW開発委託者向け</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ソフトウェア開発者が押さえておくべき 知的財産権</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">オープンソースソフトウェア講演会（経営層向け） </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>経営層向け</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>法務向け</t>
     <rPh sb="0" eb="2">
       <t>ホウム</t>
@@ -287,10 +259,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>全社員向け</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>教育</t>
     <rPh sb="0" eb="2">
       <t>キョウイク</t>
@@ -326,10 +294,6 @@
     <rPh sb="3" eb="5">
       <t>カツヨウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ライセンス</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -430,10 +394,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>問い合わせ先</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>はじめに①</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -666,14 +626,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OSS研修</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SW技術者・一般</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SW技術者</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -823,19 +775,6 @@
     <t>OSS関連情報と相談窓口④</t>
   </si>
   <si>
-    <t>出展･参考情報</t>
-    <rPh sb="0" eb="2">
-      <t>シュッテン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サンコウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>OSSの基礎</t>
     <rPh sb="4" eb="6">
       <t>キソ</t>
@@ -883,10 +822,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OSSコンプライアンスセミナー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>一般(ｿﾌﾄｳｪｱ技術者中心で企画/品質/法務/知財/他)</t>
     <rPh sb="0" eb="2">
       <t>イッパン</t>
@@ -1020,15 +955,338 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>IT Company</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-------</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FOSSポリシー及びそれが何処で見つけられるか?①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FOSSおよびFOSSライセンスに付随する知的財産権関連法令の基礎②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FOSSライセンスの概念(コピーレフト ライセンスやパーミッシブなライセンスの概念など)　③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FOSSプロジェクトのライセンス供与モデル　④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FOSSコンプライアンスに具体的に関係し、FOSSポリシー全般に関係するソフトウェア スタッフの役割と責任⑤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>供給ソフトウェアのFOSSコンポーネントの特定、記録、および追跡するためのプロセス⑥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンプライアンスプロセスの規則の明示　①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>知的財産とは何か？②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FOSSライセンス概論③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FOSSコンプライアンス概論④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自社でのOSSとは？②</t>
+  </si>
+  <si>
+    <t>自社におけるOSSライセンス遵守の取り組み④</t>
+  </si>
+  <si>
+    <t>企業などでの活用状況と自社グループにおけるOSS活用推進の取組み②</t>
+  </si>
+  <si>
+    <t>FOSSレビューにおけるソフトウェアの重要概念⑤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ＯＳＳコンプライアンス・マネージメントプロセス概説
+(規則)④
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教育対象者への教育完了８５％以上</t>
+    <rPh sb="0" eb="2">
+      <t>キョウイク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キョウイク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSS検出ツールとは②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> １OSS検出ツールを一通り使ってみよう④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ２自由にOSS検出ツールを使ってみよう⑤</t>
+  </si>
+  <si>
+    <t>効率良く効果的にOSS検出ツールを使うために⑥</t>
+  </si>
+  <si>
+    <t>OSS検出ツールを使うまでの流れや準備⑦</t>
+  </si>
+  <si>
+    <t>OSS検出ツール関連の追加情報⑧</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> オープンソースソフトウェア利用ガイドライン④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> オープンソースソフトウェアのライセンス遵守規程③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSSを利用するための社内インフラ利用経験のある営業、SE、設計、品質保証、他</t>
+    <rPh sb="4" eb="6">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シャナイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ホショウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSSのコンプライアンス(ライセンス、知財、他)、ガイドラインに関連する管理者、担当者向け</t>
+    <rPh sb="19" eb="21">
+      <t>チザイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSSコミュニティ
+研修２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FOSSレビューの実施⑥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンプライアンス マネジメントの始めから終わりまで(プロセス例)⑦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンプライアンスでの落とし穴とその回避⑧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リーフレット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSSの定義①
+OSSの具体例
+(Linux)②</t>
+    <rPh sb="4" eb="6">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>グタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライセンスとは？③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代表的なOSIのライセンス⑤</t>
+    <rPh sb="0" eb="3">
+      <t>ダイヒョウテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>活用時のライセンス上の注意点⑥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配布とライセンスの関係⑦</t>
+    <rPh sb="0" eb="2">
+      <t>ハイフ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティ貢献⑨</t>
+    <rPh sb="6" eb="8">
+      <t>コウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSS活用のサプライチェーン⑨</t>
+    <rPh sb="3" eb="5">
+      <t>カツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSSに関連する組織の関わり方⑩</t>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配布に伴う情報提供⑪</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Company</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenChain</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spec.
+-2.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spec.
+-1.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライセンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせ先</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソフトウェア開発者が押さえておくべき 知的財産権</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSS基礎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全社員向け</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パートナー向け</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW開発委託者向け</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW開発者向けOSS研修</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSS検出ツール研修</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">オープンソースソフトウェア講演会（経営層向け） </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経営層向け</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Precision Machinery Company</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>A Consumer Electronics Company</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Company</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IT Company</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1038,279 +1296,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Precision Machinery Company</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OpenChain</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Spec.
--1.2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Spec.
--2.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-------</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FOSSポリシー及びそれが何処で見つけられるか?①</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FOSSおよびFOSSライセンスに付随する知的財産権関連法令の基礎②</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FOSSライセンスの概念(コピーレフト ライセンスやパーミッシブなライセンスの概念など)　③</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FOSSプロジェクトのライセンス供与モデル　④</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FOSSコンプライアンスに具体的に関係し、FOSSポリシー全般に関係するソフトウェア スタッフの役割と責任⑤</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>供給ソフトウェアのFOSSコンポーネントの特定、記録、および追跡するためのプロセス⑥</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンプライアンスプロセスの規則の明示　①</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>知的財産とは何か？②</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FOSSライセンス概論③</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FOSSコンプライアンス概論④</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自社でのOSSとは？②</t>
-  </si>
-  <si>
-    <t>自社におけるOSSライセンス遵守の取り組み④</t>
-  </si>
-  <si>
-    <t>企業などでの活用状況と自社グループにおけるOSS活用推進の取組み②</t>
-  </si>
-  <si>
-    <t>FOSSレビューにおけるソフトウェアの重要概念⑤</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ＯＳＳコンプライアンス・マネージメントプロセス概説
-(規則)④
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>教育対象者への教育完了８５％以上</t>
-    <rPh sb="0" eb="2">
-      <t>キョウイク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キョウイク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンプライアンスプロセス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上記①～④の証拠を残す⑤</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショウコ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ノコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>役割毎に分担と責任の明確化①</t>
-    <rPh sb="0" eb="2">
-      <t>ヤクワリ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ゴト</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ブンタン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セキニン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>メイカク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>役割毎に十分なスキルを定義②</t>
-    <rPh sb="0" eb="2">
-      <t>ヤクワリ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ゴト</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジュウブン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">役割毎に教育、トレーニング、OJTを実施③
-</t>
-    <rPh sb="0" eb="2">
-      <t>ヤクワリ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ゴト</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キョウイク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スキルを身に付ける場所を提供④</t>
-    <rPh sb="4" eb="5">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>テイキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSS検出ツール研修</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSS検出ツールとは②</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> １OSS検出ツールを一通り使ってみよう④</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ２自由にOSS検出ツールを使ってみよう⑤</t>
-  </si>
-  <si>
-    <t>効率良く効果的にOSS検出ツールを使うために⑥</t>
-  </si>
-  <si>
-    <t>OSS検出ツールを使うまでの流れや準備⑦</t>
-  </si>
-  <si>
-    <t>OSS検出ツール関連の追加情報⑧</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> オープンソースソフトウェア利用ガイドライン④</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> オープンソースソフトウェアのライセンス遵守規程③</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSSを利用するための社内インフラ利用経験のある営業、SE、設計、品質保証、他</t>
-    <rPh sb="4" eb="6">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シャナイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>エイギョウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒンシツ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ホショウ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSSのコンプライアンス(ライセンス、知財、他)、ガイドラインに関連する管理者、担当者向け</t>
-    <rPh sb="19" eb="21">
-      <t>チザイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="36" eb="39">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="40" eb="43">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ム</t>
-    </rPh>
+    <t>OSS研修</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW技術者・一般</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1319,24 +1309,158 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OSSコミュニティ
-研修２</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FOSSレビューの実施⑥</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンプライアンス マネジメントの始めから終わりまで(プロセス例)⑦</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンプライアンスでの落とし穴とその回避⑧</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Culiculm
+    <t>OSS基礎研修</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSSコンプライアンスセミナー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンプライアンスプログラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラムのパフォーマンスと効果に影響を及ぼす役割と、それらの役割に対応する責任の特定①</t>
+    <rPh sb="14" eb="16">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セキニン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>トクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各役割を果たす人の必要なスキルを決定②</t>
+    <rPh sb="0" eb="3">
+      <t>カクヤクワリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">これらの者が適切な教育、訓練、指導に基づいて適任であることを確認③
+</t>
+    <rPh sb="4" eb="5">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョウイク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>クンレン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シドウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>テキニン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当する場合には、必要なスキルを獲得するための措置を講じる④</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ソチ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>適切な文書化された情報をスキルのエビデンスとして保持⑤</t>
+    <rPh sb="0" eb="2">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ブンショカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出典･参考情報</t>
+    <rPh sb="0" eb="2">
+      <t>シュッテン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>知的財産権の関係④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配布時のリスクと訴訟⑧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソースコードスキャンツール⑫</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Curriculum
 -1.2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1576,7 +1700,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1753,6 +1877,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2055,1548 +2182,1621 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="5" width="16.875" customWidth="1"/>
-    <col min="6" max="14" width="17.375" customWidth="1"/>
-    <col min="15" max="19" width="17.25" customWidth="1"/>
-    <col min="20" max="20" width="17.375" customWidth="1"/>
-    <col min="21" max="22" width="17.875" customWidth="1"/>
+    <col min="3" max="6" width="16.875" customWidth="1"/>
+    <col min="7" max="15" width="17.375" customWidth="1"/>
+    <col min="16" max="20" width="17.25" customWidth="1"/>
+    <col min="21" max="21" width="17.375" customWidth="1"/>
+    <col min="22" max="23" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="B2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="B3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="56.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="56.25">
       <c r="B4" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="D4" s="64"/>
+        <v>186</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="65"/>
       <c r="E4" s="65"/>
-      <c r="F4" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="U4" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="V4" s="62"/>
-    </row>
-    <row r="5" spans="1:22" ht="70.5" customHeight="1">
+      <c r="F4" s="66"/>
+      <c r="G4" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="V4" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="W4" s="63"/>
+    </row>
+    <row r="5" spans="1:23" ht="70.5" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>16</v>
+        <v>219</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>176</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>4</v>
+        <v>192</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>2</v>
+        <v>193</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>20</v>
+        <v>197</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>199</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="P5" s="34" t="s">
-        <v>200</v>
+        <v>13</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="33" t="s">
+        <v>204</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="R5" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="S5" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="T5" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="U5" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="V5" s="34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="93.75">
+        <v>206</v>
+      </c>
+      <c r="R5" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="S5" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="T5" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="U5" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="V5" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="W5" s="34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="93.75">
       <c r="A6" s="2"/>
       <c r="B6" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>23</v>
+        <v>145</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>145</v>
       </c>
       <c r="G6" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>1</v>
-      </c>
       <c r="I6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="13" t="s">
+      <c r="P6" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q6" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="R6" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="S6" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="T6" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="U6" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="V6" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="W6" s="34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="P6" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q6" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="R6" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="S6" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="T6" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="U6" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="V6" s="34" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="60" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>52</v>
+      <c r="F7" s="9"/>
+      <c r="G7" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>69</v>
+        <v>42</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>42</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="M7" s="9"/>
-      <c r="N7" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="O7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="18" t="s">
+        <v>74</v>
+      </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
-      <c r="S7" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="U7" s="8"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="V7" s="8"/>
-    </row>
-    <row r="8" spans="1:22" ht="37.5">
-      <c r="A8" s="61"/>
+      <c r="W7" s="8"/>
+    </row>
+    <row r="8" spans="1:23" ht="40.5">
+      <c r="A8" s="62"/>
       <c r="B8" s="9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="51"/>
       <c r="E8" s="9"/>
       <c r="F8" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="32" t="s">
         <v>177</v>
       </c>
+      <c r="G8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="I8" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="9"/>
+        <v>156</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="18"/>
       <c r="N8" s="9"/>
-      <c r="O8" s="9" t="s">
-        <v>97</v>
-      </c>
+      <c r="O8" s="9"/>
       <c r="P8" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="R8" s="9"/>
+      <c r="S8" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="V8" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="W8" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S8" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="U8" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="V8" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="54">
-      <c r="A9" s="61"/>
+    </row>
+    <row r="9" spans="1:23" ht="54">
+      <c r="A9" s="62"/>
       <c r="B9" s="15" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="52" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="15"/>
+        <v>153</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>43</v>
+      </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="19"/>
       <c r="N9" s="15"/>
-      <c r="O9" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="P9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="19" t="s">
+        <v>87</v>
+      </c>
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
-      <c r="T9" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="U9" s="44" t="s">
-        <v>143</v>
+      <c r="T9" s="15"/>
+      <c r="U9" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="V9" s="44" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="61"/>
+        <v>129</v>
+      </c>
+      <c r="W9" s="44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="62"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="53"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="26"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="23"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="20"/>
+      <c r="J10" s="26"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="16"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="20"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
-      <c r="U10" s="30"/>
+      <c r="T10" s="16"/>
       <c r="V10" s="30"/>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="61"/>
+      <c r="W10" s="30"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="62"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="53"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="26"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="23"/>
       <c r="I11" s="26"/>
-      <c r="J11" s="20"/>
+      <c r="J11" s="26"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="16"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="20"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
-      <c r="U11" s="30"/>
+      <c r="T11" s="16"/>
       <c r="V11" s="30"/>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="61"/>
+      <c r="W11" s="30"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="62"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="54"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="27"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="24"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="21"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="17"/>
       <c r="L12" s="21"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="17"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="21"/>
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
-      <c r="U12" s="30"/>
+      <c r="T12" s="17"/>
       <c r="V12" s="30"/>
-    </row>
-    <row r="13" spans="1:22" ht="27">
-      <c r="A13" s="61"/>
+      <c r="W12" s="30"/>
+    </row>
+    <row r="13" spans="1:23" ht="27">
+      <c r="A13" s="62"/>
       <c r="B13" s="18" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="49"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="32"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="18"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="9"/>
       <c r="L13" s="18"/>
-      <c r="M13" s="18" t="s">
-        <v>82</v>
-      </c>
+      <c r="M13" s="18"/>
       <c r="N13" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="O13" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="O13" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
-      <c r="T13" s="8"/>
+      <c r="T13" s="9"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
-    </row>
-    <row r="14" spans="1:22" ht="75">
-      <c r="A14" s="61"/>
+      <c r="W13" s="8"/>
+    </row>
+    <row r="14" spans="1:23" ht="75">
+      <c r="A14" s="62"/>
       <c r="B14" s="15" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="55"/>
       <c r="E14" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19" t="s">
-        <v>83</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L14" s="15"/>
+      <c r="M14" s="19"/>
       <c r="N14" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="O14" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="P14" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q14" s="15"/>
+      <c r="Q14" s="37" t="s">
+        <v>96</v>
+      </c>
       <c r="R14" s="15"/>
-      <c r="S14" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="T14" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="U14" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="V14" s="30"/>
-    </row>
-    <row r="15" spans="1:22" ht="40.5">
-      <c r="A15" s="61"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="U14" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="V14" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="W14" s="30"/>
+    </row>
+    <row r="15" spans="1:23" ht="40.5">
+      <c r="A15" s="62"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="53"/>
       <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="K15" s="20"/>
+      <c r="F15" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="L15" s="20"/>
-      <c r="M15" s="16"/>
+      <c r="M15" s="20"/>
       <c r="N15" s="16"/>
-      <c r="O15" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="P15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
-      <c r="T15" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="U15" s="43"/>
-      <c r="V15" s="30"/>
-    </row>
-    <row r="16" spans="1:22" ht="40.5">
-      <c r="A16" s="61"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="V15" s="43"/>
+      <c r="W15" s="30"/>
+    </row>
+    <row r="16" spans="1:23" ht="40.5">
+      <c r="A16" s="62"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="54"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" s="21"/>
+      <c r="F16" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27" t="s">
+        <v>52</v>
+      </c>
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
-      <c r="M16" s="17"/>
+      <c r="M16" s="21"/>
       <c r="N16" s="17"/>
-      <c r="O16" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="P16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="21" t="s">
+        <v>91</v>
+      </c>
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
       <c r="S16" s="17"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="V16" s="29"/>
-    </row>
-    <row r="17" spans="1:22" ht="81">
-      <c r="A17" s="61"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="W16" s="29"/>
+    </row>
+    <row r="17" spans="1:23" ht="81">
+      <c r="A17" s="62"/>
       <c r="B17" s="15" t="s">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="19"/>
       <c r="N17" s="15"/>
-      <c r="O17" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="P17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="19" t="s">
+        <v>86</v>
+      </c>
       <c r="Q17" s="15"/>
-      <c r="R17" s="19" t="s">
-        <v>119</v>
-      </c>
+      <c r="R17" s="15"/>
       <c r="S17" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="T17" s="44" t="s">
-        <v>149</v>
+        <v>107</v>
+      </c>
+      <c r="T17" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="U17" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="V17" s="28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="56.25">
-      <c r="A18" s="61"/>
+        <v>135</v>
+      </c>
+      <c r="V17" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="W17" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="56.25">
+      <c r="A18" s="62"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="56" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="16"/>
+        <v>155</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="16"/>
+      <c r="M18" s="20"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="P18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="Q18" s="16"/>
-      <c r="R18" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="S18" s="16"/>
-      <c r="T18" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="U18" s="30"/>
-      <c r="V18" s="43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="54">
-      <c r="A19" s="61"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="T18" s="16"/>
+      <c r="U18" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="V18" s="30"/>
+      <c r="W18" s="43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="54">
+      <c r="A19" s="62"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="53"/>
       <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="16"/>
+      <c r="F19" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="20"/>
       <c r="N19" s="16"/>
-      <c r="O19" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="P19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="Q19" s="16"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="37.5">
-      <c r="A20" s="61"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="37.5">
+      <c r="A20" s="62"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="54"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="17"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" s="21"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="21"/>
       <c r="N20" s="17"/>
-      <c r="P20" s="17"/>
+      <c r="O20" s="17"/>
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
       <c r="S20" s="17"/>
-      <c r="T20" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="27">
-      <c r="A21" s="61"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="27">
+      <c r="A21" s="62"/>
       <c r="B21" s="19" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="52"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="L21" s="19"/>
-      <c r="M21" s="15"/>
+      <c r="F21" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="19"/>
+      <c r="J21" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M21" s="19"/>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
-      <c r="T21" s="28"/>
+      <c r="T21" s="15"/>
       <c r="U21" s="28"/>
       <c r="V21" s="28"/>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22" s="61"/>
+      <c r="W21" s="28"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="62"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
       <c r="D22" s="56"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="L22" s="20"/>
-      <c r="M22" s="16"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" s="20"/>
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
-      <c r="T22" s="30"/>
+      <c r="T22" s="16"/>
       <c r="U22" s="30"/>
       <c r="V22" s="30"/>
-    </row>
-    <row r="23" spans="1:22" ht="40.5">
-      <c r="A23" s="61"/>
+      <c r="W22" s="30"/>
+    </row>
+    <row r="23" spans="1:23" ht="40.5">
+      <c r="A23" s="62"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
       <c r="D23" s="56"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="L23" s="20"/>
-      <c r="M23" s="16"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="M23" s="20"/>
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
-      <c r="T23" s="30"/>
+      <c r="T23" s="16"/>
       <c r="U23" s="30"/>
       <c r="V23" s="30"/>
-    </row>
-    <row r="24" spans="1:22" ht="40.5">
-      <c r="A24" s="61"/>
+      <c r="W23" s="30"/>
+    </row>
+    <row r="24" spans="1:23" ht="40.5">
+      <c r="A24" s="62"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
       <c r="D24" s="56"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="L24" s="20"/>
-      <c r="M24" s="16"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="M24" s="20"/>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
-      <c r="T24" s="30"/>
+      <c r="T24" s="16"/>
       <c r="U24" s="30"/>
       <c r="V24" s="30"/>
-    </row>
-    <row r="25" spans="1:22" ht="40.5">
-      <c r="A25" s="61"/>
+      <c r="W24" s="30"/>
+    </row>
+    <row r="25" spans="1:23" ht="40.5">
+      <c r="A25" s="62"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
       <c r="D25" s="56"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="L25" s="20"/>
-      <c r="M25" s="16"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="M25" s="20"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
-      <c r="T25" s="30"/>
+      <c r="T25" s="16"/>
       <c r="U25" s="30"/>
       <c r="V25" s="30"/>
-    </row>
-    <row r="26" spans="1:22" ht="40.5">
-      <c r="A26" s="61"/>
+      <c r="W25" s="30"/>
+    </row>
+    <row r="26" spans="1:23" ht="40.5">
+      <c r="A26" s="62"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
       <c r="D26" s="56"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="L26" s="20"/>
-      <c r="M26" s="16"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="M26" s="20"/>
       <c r="N26" s="16"/>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
-      <c r="T26" s="30"/>
+      <c r="T26" s="16"/>
       <c r="U26" s="30"/>
       <c r="V26" s="30"/>
-    </row>
-    <row r="27" spans="1:22" ht="27">
-      <c r="A27" s="61"/>
+      <c r="W26" s="30"/>
+    </row>
+    <row r="27" spans="1:23" ht="27">
+      <c r="A27" s="62"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="57"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="L27" s="21"/>
-      <c r="M27" s="17"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="M27" s="21"/>
       <c r="N27" s="17"/>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
       <c r="Q27" s="17"/>
       <c r="R27" s="17"/>
       <c r="S27" s="17"/>
-      <c r="T27" s="29"/>
+      <c r="T27" s="17"/>
       <c r="U27" s="29"/>
       <c r="V27" s="29"/>
-    </row>
-    <row r="28" spans="1:22" ht="93.75">
-      <c r="A28" s="61"/>
+      <c r="W27" s="29"/>
+    </row>
+    <row r="28" spans="1:23" ht="93.75">
+      <c r="A28" s="62"/>
       <c r="B28" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="D28" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="16"/>
       <c r="L28" s="20"/>
-      <c r="M28" s="16"/>
+      <c r="M28" s="20"/>
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
       <c r="S28" s="16"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="V28" s="30"/>
-    </row>
-    <row r="29" spans="1:22" ht="94.5">
-      <c r="A29" s="61"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="W28" s="30"/>
+    </row>
+    <row r="29" spans="1:23" ht="94.5">
+      <c r="A29" s="62"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D29" s="56" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="20"/>
+        <v>159</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="16"/>
       <c r="L29" s="20"/>
-      <c r="M29" s="16"/>
+      <c r="M29" s="20"/>
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
       <c r="S29" s="16"/>
-      <c r="T29" s="30"/>
+      <c r="T29" s="16"/>
       <c r="U29" s="30"/>
       <c r="V29" s="30"/>
-    </row>
-    <row r="30" spans="1:22" ht="81">
-      <c r="A30" s="61"/>
+      <c r="W29" s="30"/>
+    </row>
+    <row r="30" spans="1:23" ht="81">
+      <c r="A30" s="62"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D30" s="56" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="20"/>
+        <v>173</v>
+      </c>
+      <c r="F30" s="43"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="16"/>
       <c r="L30" s="20"/>
-      <c r="M30" s="16"/>
+      <c r="M30" s="20"/>
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
       <c r="S30" s="16"/>
-      <c r="T30" s="30"/>
+      <c r="T30" s="16"/>
       <c r="U30" s="30"/>
       <c r="V30" s="30"/>
-    </row>
-    <row r="31" spans="1:22" ht="54">
-      <c r="A31" s="61"/>
+      <c r="W30" s="30"/>
+    </row>
+    <row r="31" spans="1:23" ht="54">
+      <c r="A31" s="62"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="D31" s="48"/>
       <c r="E31" s="20" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="F31" s="20"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="16"/>
       <c r="L31" s="20"/>
-      <c r="M31" s="16"/>
+      <c r="M31" s="20"/>
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
       <c r="P31" s="16"/>
       <c r="Q31" s="16"/>
       <c r="R31" s="16"/>
       <c r="S31" s="16"/>
-      <c r="T31" s="30"/>
+      <c r="T31" s="16"/>
       <c r="U31" s="30"/>
       <c r="V31" s="30"/>
-    </row>
-    <row r="32" spans="1:22" ht="27">
-      <c r="A32" s="61"/>
+      <c r="W31" s="30"/>
+    </row>
+    <row r="32" spans="1:23" ht="54">
+      <c r="A32" s="62"/>
       <c r="B32" s="20"/>
       <c r="C32" s="58" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="E32" s="29"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="20"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="16"/>
       <c r="L32" s="20"/>
-      <c r="M32" s="16"/>
+      <c r="M32" s="20"/>
       <c r="N32" s="16"/>
       <c r="O32" s="16"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
       <c r="R32" s="16"/>
       <c r="S32" s="16"/>
-      <c r="T32" s="30"/>
+      <c r="T32" s="16"/>
       <c r="U32" s="30"/>
       <c r="V32" s="30"/>
-    </row>
-    <row r="33" spans="1:22" ht="40.5">
-      <c r="A33" s="61"/>
+      <c r="W32" s="30"/>
+    </row>
+    <row r="33" spans="1:23" ht="40.5">
+      <c r="A33" s="62"/>
       <c r="B33" s="19" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="52"/>
       <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="19"/>
+      <c r="F33" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G33" s="19"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="15"/>
       <c r="L33" s="19"/>
-      <c r="M33" s="15"/>
+      <c r="M33" s="19"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="19" t="s">
-        <v>105</v>
-      </c>
+      <c r="O33" s="15"/>
       <c r="P33" s="19" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="Q33" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="R33" s="15"/>
+        <v>94</v>
+      </c>
+      <c r="R33" s="19" t="s">
+        <v>94</v>
+      </c>
       <c r="S33" s="15"/>
-      <c r="T33" s="28"/>
+      <c r="T33" s="15"/>
       <c r="U33" s="28"/>
       <c r="V33" s="28"/>
-    </row>
-    <row r="34" spans="1:22" ht="40.5">
-      <c r="A34" s="61"/>
+      <c r="W33" s="28"/>
+    </row>
+    <row r="34" spans="1:23" ht="40.5">
+      <c r="A34" s="62"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
       <c r="D34" s="56"/>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="16"/>
       <c r="L34" s="20"/>
-      <c r="M34" s="16"/>
+      <c r="M34" s="20"/>
       <c r="N34" s="16"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20" t="s">
-        <v>109</v>
-      </c>
+      <c r="O34" s="16"/>
+      <c r="P34" s="20"/>
       <c r="Q34" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="R34" s="16"/>
+        <v>97</v>
+      </c>
+      <c r="R34" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="S34" s="16"/>
-      <c r="T34" s="30"/>
+      <c r="T34" s="16"/>
       <c r="U34" s="30"/>
       <c r="V34" s="30"/>
-    </row>
-    <row r="35" spans="1:22" ht="40.5">
-      <c r="A35" s="61"/>
+      <c r="W34" s="30"/>
+    </row>
+    <row r="35" spans="1:23" ht="40.5">
+      <c r="A35" s="62"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
       <c r="D35" s="56"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="16"/>
       <c r="L35" s="20"/>
-      <c r="M35" s="16"/>
+      <c r="M35" s="20"/>
       <c r="N35" s="16"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20" t="s">
-        <v>110</v>
-      </c>
+      <c r="O35" s="16"/>
+      <c r="P35" s="20"/>
       <c r="Q35" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="R35" s="16"/>
+        <v>98</v>
+      </c>
+      <c r="R35" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="S35" s="16"/>
-      <c r="T35" s="30"/>
+      <c r="T35" s="16"/>
       <c r="U35" s="30"/>
       <c r="V35" s="30"/>
-    </row>
-    <row r="36" spans="1:22" ht="54">
-      <c r="A36" s="61"/>
+      <c r="W35" s="30"/>
+    </row>
+    <row r="36" spans="1:23" ht="54">
+      <c r="A36" s="62"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
       <c r="D36" s="56"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="16"/>
       <c r="L36" s="20"/>
-      <c r="M36" s="16"/>
+      <c r="M36" s="20"/>
       <c r="N36" s="16"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20" t="s">
-        <v>111</v>
-      </c>
+      <c r="O36" s="16"/>
+      <c r="P36" s="20"/>
       <c r="Q36" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="R36" s="16"/>
+        <v>99</v>
+      </c>
+      <c r="R36" s="20" t="s">
+        <v>103</v>
+      </c>
       <c r="S36" s="16"/>
-      <c r="T36" s="30"/>
+      <c r="T36" s="16"/>
       <c r="U36" s="30"/>
       <c r="V36" s="30"/>
-    </row>
-    <row r="37" spans="1:22" ht="40.5">
-      <c r="A37" s="61"/>
+      <c r="W36" s="30"/>
+    </row>
+    <row r="37" spans="1:23" ht="40.5">
+      <c r="A37" s="62"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
       <c r="D37" s="56"/>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="16"/>
       <c r="L37" s="20"/>
-      <c r="M37" s="16"/>
+      <c r="M37" s="20"/>
       <c r="N37" s="16"/>
-      <c r="O37" s="20"/>
+      <c r="O37" s="16"/>
       <c r="P37" s="20"/>
-      <c r="Q37" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="R37" s="16"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20" t="s">
+        <v>104</v>
+      </c>
       <c r="S37" s="16"/>
-      <c r="T37" s="30"/>
+      <c r="T37" s="16"/>
       <c r="U37" s="30"/>
       <c r="V37" s="30"/>
-    </row>
-    <row r="38" spans="1:22" ht="40.5">
-      <c r="A38" s="61"/>
+      <c r="W37" s="30"/>
+    </row>
+    <row r="38" spans="1:23" ht="40.5">
+      <c r="A38" s="62"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="56"/>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="16"/>
       <c r="L38" s="20"/>
-      <c r="M38" s="16"/>
+      <c r="M38" s="20"/>
       <c r="N38" s="16"/>
-      <c r="O38" s="20"/>
+      <c r="O38" s="16"/>
       <c r="P38" s="20"/>
-      <c r="Q38" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="R38" s="16"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="S38" s="16"/>
-      <c r="T38" s="30"/>
+      <c r="T38" s="16"/>
       <c r="U38" s="30"/>
       <c r="V38" s="30"/>
-    </row>
-    <row r="39" spans="1:22" ht="27">
-      <c r="A39" s="61"/>
+      <c r="W38" s="30"/>
+    </row>
+    <row r="39" spans="1:23" ht="27">
+      <c r="A39" s="62"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
       <c r="D39" s="56"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="16"/>
       <c r="L39" s="20"/>
-      <c r="M39" s="16"/>
+      <c r="M39" s="20"/>
       <c r="N39" s="16"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="R39" s="17"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="21" t="s">
+        <v>106</v>
+      </c>
       <c r="S39" s="17"/>
-      <c r="T39" s="29"/>
+      <c r="T39" s="17"/>
       <c r="U39" s="29"/>
       <c r="V39" s="29"/>
-    </row>
-    <row r="40" spans="1:22" ht="27">
-      <c r="A40" s="61"/>
+      <c r="W39" s="29"/>
+    </row>
+    <row r="40" spans="1:23" ht="27">
+      <c r="A40" s="62"/>
       <c r="B40" s="19" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="52"/>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
-      <c r="G40" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="H40" s="25" t="s">
-        <v>55</v>
+      <c r="G40" s="19"/>
+      <c r="H40" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="I40" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="J40" s="19" t="s">
-        <v>76</v>
+        <v>45</v>
+      </c>
+      <c r="J40" s="25" t="s">
+        <v>57</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="L40" s="19"/>
-      <c r="M40" s="15"/>
+        <v>66</v>
+      </c>
+      <c r="L40" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="M40" s="19"/>
       <c r="N40" s="15"/>
       <c r="O40" s="15"/>
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
       <c r="S40" s="15"/>
-      <c r="T40" t="s">
-        <v>41</v>
-      </c>
-      <c r="U40" s="28" t="s">
-        <v>146</v>
+      <c r="T40" s="15"/>
+      <c r="U40" t="s">
+        <v>32</v>
       </c>
       <c r="V40" s="28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22">
-      <c r="A41" s="61"/>
+        <v>132</v>
+      </c>
+      <c r="W40" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="62"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
       <c r="D41" s="57"/>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="27"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="24"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="K41" s="21"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="L41" s="21"/>
-      <c r="M41" s="17"/>
+      <c r="M41" s="21"/>
       <c r="N41" s="17"/>
       <c r="O41" s="17"/>
       <c r="P41" s="17"/>
       <c r="Q41" s="17"/>
       <c r="R41" s="17"/>
       <c r="S41" s="17"/>
-      <c r="T41" t="s">
-        <v>154</v>
-      </c>
-      <c r="U41" s="30"/>
+      <c r="T41" s="17"/>
+      <c r="U41" t="s">
+        <v>140</v>
+      </c>
       <c r="V41" s="30"/>
-    </row>
-    <row r="42" spans="1:22" ht="37.5">
-      <c r="A42" s="61"/>
+      <c r="W41" s="30"/>
+    </row>
+    <row r="42" spans="1:23" ht="37.5">
+      <c r="A42" s="62"/>
       <c r="B42" s="9" t="s">
-        <v>51</v>
+        <v>191</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="51"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G42" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="H42" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="I42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="I42" s="32" t="s">
+        <v>46</v>
+      </c>
       <c r="J42" s="9"/>
-      <c r="K42" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="L42" s="18"/>
-      <c r="M42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="M42" s="18"/>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
-      <c r="S42" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="T42" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="U42" s="8"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="U42" s="42" t="s">
+        <v>143</v>
+      </c>
       <c r="V42" s="8"/>
-    </row>
-    <row r="43" spans="1:22" ht="27">
-      <c r="A43" s="61"/>
+      <c r="W42" s="8"/>
+    </row>
+    <row r="43" spans="1:23" ht="27">
+      <c r="A43" s="62"/>
       <c r="B43" s="18" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="49"/>
       <c r="E43" s="18"/>
       <c r="F43" s="18"/>
-      <c r="G43" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="H43" s="18"/>
-      <c r="I43" s="9"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I43" s="18"/>
       <c r="J43" s="9"/>
-      <c r="K43" s="18"/>
+      <c r="K43" s="9"/>
       <c r="L43" s="18"/>
-      <c r="M43" s="9"/>
+      <c r="M43" s="18"/>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
-      <c r="P43" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="R43" s="9"/>
-      <c r="S43" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="T43" s="8"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="40" t="s">
+        <v>113</v>
+      </c>
       <c r="U43" s="8"/>
       <c r="V43" s="8"/>
-    </row>
-    <row r="44" spans="1:22" ht="108">
-      <c r="A44" s="61"/>
+      <c r="W43" s="8"/>
+    </row>
+    <row r="44" spans="1:23" ht="108">
+      <c r="A44" s="62"/>
       <c r="B44" s="15" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="56" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="E44" s="16"/>
-      <c r="F44" s="20"/>
+      <c r="F44" s="16"/>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
-      <c r="I44" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="J44" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="M44" s="16"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="P44" s="15"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K44" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="N44" s="16"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="19" t="s">
+        <v>92</v>
+      </c>
       <c r="Q44" s="15"/>
       <c r="R44" s="15"/>
       <c r="S44" s="15"/>
-      <c r="T44" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="U44" s="30"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="44" t="s">
+        <v>141</v>
+      </c>
       <c r="V44" s="30"/>
-    </row>
-    <row r="45" spans="1:22" ht="27">
-      <c r="A45" s="61"/>
+      <c r="W44" s="30"/>
+    </row>
+    <row r="45" spans="1:23" ht="27">
+      <c r="A45" s="62"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
       <c r="D45" s="53"/>
       <c r="E45" s="16"/>
-      <c r="F45" s="20"/>
+      <c r="F45" s="16"/>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
-      <c r="I45" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="J45" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="K45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="K45" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="L45" s="20"/>
-      <c r="M45" s="16"/>
+      <c r="M45" s="20"/>
       <c r="N45" s="16"/>
       <c r="O45" s="16"/>
       <c r="P45" s="16"/>
       <c r="Q45" s="16"/>
       <c r="R45" s="16"/>
       <c r="S45" s="16"/>
-      <c r="T45" s="30"/>
+      <c r="T45" s="16"/>
       <c r="U45" s="30"/>
       <c r="V45" s="30"/>
-    </row>
-    <row r="46" spans="1:22" ht="40.5">
-      <c r="A46" s="61"/>
+      <c r="W45" s="30"/>
+    </row>
+    <row r="46" spans="1:23" ht="40.5">
+      <c r="A46" s="62"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="54"/>
       <c r="E46" s="17"/>
-      <c r="F46" s="21"/>
+      <c r="F46" s="17"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="K46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="L46" s="21"/>
-      <c r="M46" s="17"/>
+      <c r="M46" s="21"/>
       <c r="N46" s="17"/>
       <c r="O46" s="17"/>
       <c r="P46" s="17"/>
       <c r="Q46" s="17"/>
       <c r="R46" s="17"/>
       <c r="S46" s="17"/>
-      <c r="T46" s="29"/>
+      <c r="T46" s="17"/>
       <c r="U46" s="29"/>
       <c r="V46" s="29"/>
-    </row>
-    <row r="47" spans="1:22" ht="7.5" customHeight="1">
+      <c r="W46" s="29"/>
+    </row>
+    <row r="47" spans="1:23" ht="7.5" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="38"/>
+      <c r="F47" s="2"/>
       <c r="G47" s="38"/>
       <c r="H47" s="38"/>
       <c r="I47" s="38"/>
       <c r="J47" s="38"/>
       <c r="K47" s="38"/>
       <c r="L47" s="38"/>
-      <c r="M47" s="39"/>
+      <c r="M47" s="38"/>
       <c r="N47" s="39"/>
-      <c r="O47" s="2"/>
+      <c r="O47" s="39"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
-    </row>
-    <row r="48" spans="1:22">
+      <c r="T47" s="2"/>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" s="2"/>
       <c r="B48" s="9" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="9"/>
+      <c r="G48" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M48" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G48" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K48" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L48" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="N48" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="O48" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
-      <c r="U48" s="8" t="s">
-        <v>131</v>
-      </c>
+      <c r="T48" s="2"/>
       <c r="V48" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>118</v>
+      </c>
+      <c r="W48" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3611,99 +3811,105 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="H50" s="2"/>
+      <c r="G50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="G51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="H52" s="2"/>
+      <c r="G52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="G53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="H54" s="2"/>
+      <c r="G54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="G4:O4"/>
     <mergeCell ref="A7:A46"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
